--- a/Raw Data Unedited.xlsx
+++ b/Raw Data Unedited.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\OneDrive\Documents\UCT\BIO Honours\Reproducible Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\OneDrive\Documents\UCT\BIO Honours\Reproducible Research\R\DataManagement\DataManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB5B276-EECF-4105-8266-A7C2E03DF737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C828D4-9B0A-47C6-B8A5-FD5BE70A40D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C1D85B99-D094-4475-A3D4-96F6AF820FA9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="125">
   <si>
     <t>Date:</t>
   </si>
@@ -415,21 +415,6 @@
   </si>
   <si>
     <t>4 (WITH BAR-THROATED APALIS/OTHER BATS)</t>
-  </si>
-  <si>
-    <t>(aggression towards me, dive bombimg with tail feathers sprawled)</t>
-  </si>
-  <si>
-    <t>(group of +-6 dive bombing and fast passed chittering)</t>
-  </si>
-  <si>
-    <t>(Could aslo be courtship. Was fast passed chittering and flying from branch to branch with tail feathers spread, female close by but no other males)</t>
-  </si>
-  <si>
-    <t>Tail feathers fanned, fast passed chatting</t>
-  </si>
-  <si>
-    <t>Bar-throated apalis and other Batis</t>
   </si>
 </sst>
 </file>
@@ -441,18 +426,10 @@
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="[mm]:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,11 +452,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -487,10 +463,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -804,5501 +778,4363 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BA9508-0549-4882-812B-815A151E4741}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:KC281"/>
+  <dimension ref="A1:KB255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="11" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="M2" s="6"/>
-      <c r="JC2" s="3"/>
-    </row>
-    <row r="3" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="L2" s="6"/>
+      <c r="JB2" s="3"/>
+    </row>
+    <row r="3" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="3"/>
+      <c r="CR3" s="3"/>
+      <c r="CS3" s="3"/>
+      <c r="CT3" s="3"/>
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3"/>
+      <c r="DD3" s="3"/>
+      <c r="DE3" s="3"/>
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3"/>
+      <c r="DH3" s="3"/>
+      <c r="DI3" s="3"/>
+      <c r="DJ3" s="3"/>
+      <c r="DK3" s="3"/>
+      <c r="DL3" s="3"/>
+      <c r="DM3" s="3"/>
+      <c r="DN3" s="3"/>
+      <c r="DO3" s="3"/>
+      <c r="DP3" s="3"/>
+      <c r="DQ3" s="3"/>
+      <c r="DR3" s="3"/>
+      <c r="DU3" s="3"/>
+      <c r="DV3" s="3"/>
+      <c r="DW3" s="3"/>
+      <c r="DX3" s="3"/>
+      <c r="DY3" s="3"/>
+      <c r="DZ3" s="3"/>
+      <c r="EA3" s="3"/>
+      <c r="EC3" s="3"/>
+      <c r="ED3" s="3"/>
+      <c r="EE3" s="3"/>
+      <c r="EF3" s="3"/>
+      <c r="EG3" s="3"/>
+      <c r="EH3" s="3"/>
+      <c r="EI3" s="3"/>
+      <c r="EJ3" s="3"/>
+      <c r="EK3" s="3"/>
+      <c r="EL3" s="3"/>
+      <c r="EM3" s="3"/>
+      <c r="EN3" s="3"/>
+      <c r="EO3" s="3"/>
+      <c r="EQ3" s="3"/>
+      <c r="ER3" s="3"/>
+      <c r="ES3" s="3"/>
+      <c r="ET3" s="3"/>
+      <c r="EU3" s="3"/>
+      <c r="EV3" s="3"/>
+      <c r="EW3" s="3"/>
+      <c r="EX3" s="3"/>
+      <c r="EY3" s="3"/>
+      <c r="EZ3" s="3"/>
+      <c r="FA3" s="3"/>
+      <c r="FB3" s="3"/>
+      <c r="FC3" s="3"/>
+      <c r="FD3" s="3"/>
+      <c r="FE3" s="3"/>
+      <c r="FF3" s="3"/>
+      <c r="FG3" s="3"/>
+      <c r="FH3" s="3"/>
+      <c r="FI3" s="3"/>
+      <c r="FJ3" s="3"/>
+      <c r="FK3" s="3"/>
+      <c r="FL3" s="3"/>
+      <c r="FM3" s="3"/>
+      <c r="FN3" s="3"/>
+      <c r="FO3" s="3"/>
+      <c r="FP3" s="3"/>
+      <c r="FQ3" s="3"/>
+      <c r="FR3" s="3"/>
+      <c r="FS3" s="3"/>
+      <c r="FT3" s="3"/>
+      <c r="FU3" s="3"/>
+      <c r="FV3" s="3"/>
+      <c r="FW3" s="3"/>
+      <c r="FX3" s="3"/>
+      <c r="FY3" s="3"/>
+      <c r="GA3" s="3"/>
+      <c r="GB3" s="3"/>
+      <c r="GC3" s="3"/>
+      <c r="GD3" s="3"/>
+      <c r="GE3" s="3"/>
+      <c r="GF3" s="3"/>
+      <c r="GG3" s="3"/>
+      <c r="GH3" s="3"/>
+      <c r="GI3" s="3"/>
+      <c r="GJ3" s="3"/>
+      <c r="GK3" s="3"/>
+      <c r="GL3" s="3"/>
+      <c r="GM3" s="3"/>
+      <c r="GN3" s="3"/>
+      <c r="GO3" s="3"/>
+      <c r="GP3" s="3"/>
+      <c r="GQ3" s="3"/>
+      <c r="GR3" s="3"/>
+      <c r="GS3" s="3"/>
+      <c r="GT3" s="3"/>
+      <c r="GU3" s="3"/>
+      <c r="GV3" s="3"/>
+      <c r="GW3" s="3"/>
+      <c r="GX3" s="3"/>
+      <c r="GY3" s="3"/>
+      <c r="GZ3" s="3"/>
+      <c r="HA3" s="3"/>
+      <c r="HB3" s="3"/>
+      <c r="HC3" s="3"/>
+      <c r="HG3" s="3"/>
+      <c r="HH3" s="3"/>
+      <c r="HI3" s="3"/>
+      <c r="HJ3" s="3"/>
+      <c r="HK3" s="3"/>
+      <c r="HL3" s="3"/>
+      <c r="HM3" s="3"/>
+      <c r="HN3" s="3"/>
+      <c r="HO3" s="3"/>
+      <c r="HP3" s="3"/>
+      <c r="HQ3" s="3"/>
+      <c r="HR3" s="3"/>
+      <c r="HS3" s="3"/>
+      <c r="HT3" s="3"/>
+      <c r="HU3" s="3"/>
+      <c r="HV3" s="3"/>
+      <c r="HW3" s="3"/>
+      <c r="HX3" s="3"/>
+      <c r="HY3" s="3"/>
+      <c r="HZ3" s="3"/>
+      <c r="IA3" s="3"/>
+      <c r="IB3" s="3"/>
+      <c r="IC3" s="3"/>
+      <c r="ID3" s="3"/>
+      <c r="IE3" s="3"/>
+      <c r="IF3" s="3"/>
+      <c r="IG3" s="3"/>
+      <c r="IH3" s="3"/>
+      <c r="II3" s="3"/>
+      <c r="IJ3" s="3"/>
+      <c r="IK3" s="3"/>
+      <c r="IL3" s="3"/>
+      <c r="IM3" s="3"/>
+      <c r="IN3" s="3"/>
+      <c r="IO3" s="3"/>
+      <c r="IP3" s="3"/>
+      <c r="IQ3" s="3"/>
+      <c r="IR3" s="3"/>
+      <c r="IS3" s="3"/>
+      <c r="IT3" s="3"/>
+      <c r="IU3" s="3"/>
+      <c r="IW3" s="3"/>
+      <c r="IX3" s="3"/>
+      <c r="IY3" s="3"/>
+      <c r="IZ3" s="3"/>
+      <c r="JA3" s="3"/>
+      <c r="JB3" s="3"/>
+      <c r="JC3" s="3"/>
+      <c r="JD3" s="3"/>
+      <c r="JE3" s="3"/>
+      <c r="JF3" s="3"/>
+      <c r="JG3" s="3"/>
+      <c r="JH3" s="3"/>
+      <c r="JI3" s="3"/>
+      <c r="JJ3" s="3"/>
+      <c r="JK3" s="3"/>
+      <c r="JL3" s="3"/>
+      <c r="JM3" s="3"/>
+      <c r="JN3" s="3"/>
+      <c r="JO3" s="3"/>
+      <c r="JP3" s="3"/>
+      <c r="JQ3" s="3"/>
+      <c r="JR3" s="3"/>
+      <c r="JS3" s="3"/>
+      <c r="JT3" s="3"/>
+      <c r="JU3" s="3"/>
+      <c r="JV3" s="3"/>
+      <c r="JW3" s="3"/>
+      <c r="JX3" s="3"/>
+      <c r="JY3" s="3"/>
+      <c r="JZ3" s="3"/>
+      <c r="KA3" s="3"/>
+      <c r="KB3" s="3"/>
+    </row>
+    <row r="4" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.2337962962962962E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="L4" s="6"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.0601851851851853E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.6087962962962961E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.8472222222222219E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4.7453703703703704E-4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.3888888888888887E-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.0949074074074073E-3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.6157407407407405E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:288" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.0717592592592593E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.8634259259259259E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.1342592592592591E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.7546296296296294E-3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.7708333333333332E-3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8.6805555555555562E-4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.6203703703703703E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>6.7129629629629635E-4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.8518518518518517E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5.6018518518518518E-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.3773148148148147E-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9.3750000000000007E-4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.2407407407407406E-4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.0995370370370371E-3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>8.449074074074075E-4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>8.2175925925925927E-4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>7.7546296296296293E-4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1.9097222222222222E-3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2.4305555555555552E-4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>8.2175925925925927E-4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>4.3981481481481481E-4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.6620370370370372E-4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C51" s="4">
+        <v>3.2523148148148147E-3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1.4004629629629629E-3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2.1180555555555553E-3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1.6782407407407406E-3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>5.3240740740740744E-4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>7.9861111111111105E-4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>6.9444444444444444E-5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>4.6296296296296301E-5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1.7361111111111109E-4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4.6296296296296301E-5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2.314814814814815E-5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9.2592592592592602E-5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4">
+        <v>3.4722222222222222E-5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4.6296296296296301E-5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>3.4722222222222222E-5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4">
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="3"/>
-      <c r="CB4" s="3"/>
-      <c r="CC4" s="3"/>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3"/>
-      <c r="CJ4" s="3"/>
-      <c r="CK4" s="3"/>
-      <c r="CL4" s="3"/>
-      <c r="CM4" s="3"/>
-      <c r="CN4" s="3"/>
-      <c r="CO4" s="3"/>
-      <c r="CP4" s="3"/>
-      <c r="CQ4" s="3"/>
-      <c r="CR4" s="3"/>
-      <c r="CS4" s="3"/>
-      <c r="CT4" s="3"/>
-      <c r="CU4" s="3"/>
-      <c r="CW4" s="3"/>
-      <c r="CX4" s="3"/>
-      <c r="CY4" s="3"/>
-      <c r="CZ4" s="3"/>
-      <c r="DB4" s="3"/>
-      <c r="DC4" s="3"/>
-      <c r="DD4" s="3"/>
-      <c r="DE4" s="3"/>
-      <c r="DF4" s="3"/>
-      <c r="DG4" s="3"/>
-      <c r="DH4" s="3"/>
-      <c r="DI4" s="3"/>
-      <c r="DJ4" s="3"/>
-      <c r="DK4" s="3"/>
-      <c r="DL4" s="3"/>
-      <c r="DM4" s="3"/>
-      <c r="DN4" s="3"/>
-      <c r="DO4" s="3"/>
-      <c r="DP4" s="3"/>
-      <c r="DQ4" s="3"/>
-      <c r="DR4" s="3"/>
-      <c r="DS4" s="3"/>
-      <c r="DV4" s="3"/>
-      <c r="DW4" s="3"/>
-      <c r="DX4" s="3"/>
-      <c r="DY4" s="3"/>
-      <c r="DZ4" s="3"/>
-      <c r="EA4" s="3"/>
-      <c r="EB4" s="3"/>
-      <c r="ED4" s="3"/>
-      <c r="EE4" s="3"/>
-      <c r="EF4" s="3"/>
-      <c r="EG4" s="3"/>
-      <c r="EH4" s="3"/>
-      <c r="EI4" s="3"/>
-      <c r="EJ4" s="3"/>
-      <c r="EK4" s="3"/>
-      <c r="EL4" s="3"/>
-      <c r="EM4" s="3"/>
-      <c r="EN4" s="3"/>
-      <c r="EO4" s="3"/>
-      <c r="EP4" s="3"/>
-      <c r="ER4" s="3"/>
-      <c r="ES4" s="3"/>
-      <c r="ET4" s="3"/>
-      <c r="EU4" s="3"/>
-      <c r="EV4" s="3"/>
-      <c r="EW4" s="3"/>
-      <c r="EX4" s="3"/>
-      <c r="EY4" s="3"/>
-      <c r="EZ4" s="3"/>
-      <c r="FA4" s="3"/>
-      <c r="FB4" s="3"/>
-      <c r="FC4" s="3"/>
-      <c r="FD4" s="3"/>
-      <c r="FE4" s="3"/>
-      <c r="FF4" s="3"/>
-      <c r="FG4" s="3"/>
-      <c r="FH4" s="3"/>
-      <c r="FI4" s="3"/>
-      <c r="FJ4" s="3"/>
-      <c r="FK4" s="3"/>
-      <c r="FL4" s="3"/>
-      <c r="FM4" s="3"/>
-      <c r="FN4" s="3"/>
-      <c r="FO4" s="3"/>
-      <c r="FP4" s="3"/>
-      <c r="FQ4" s="3"/>
-      <c r="FR4" s="3"/>
-      <c r="FS4" s="3"/>
-      <c r="FT4" s="3"/>
-      <c r="FU4" s="3"/>
-      <c r="FV4" s="3"/>
-      <c r="FW4" s="3"/>
-      <c r="FX4" s="3"/>
-      <c r="FY4" s="3"/>
-      <c r="FZ4" s="3"/>
-      <c r="GB4" s="3"/>
-      <c r="GC4" s="3"/>
-      <c r="GD4" s="3"/>
-      <c r="GE4" s="3"/>
-      <c r="GF4" s="3"/>
-      <c r="GG4" s="3"/>
-      <c r="GH4" s="3"/>
-      <c r="GI4" s="3"/>
-      <c r="GJ4" s="3"/>
-      <c r="GK4" s="3"/>
-      <c r="GL4" s="3"/>
-      <c r="GM4" s="3"/>
-      <c r="GN4" s="3"/>
-      <c r="GO4" s="3"/>
-      <c r="GP4" s="3"/>
-      <c r="GQ4" s="3"/>
-      <c r="GR4" s="3"/>
-      <c r="GS4" s="3"/>
-      <c r="GT4" s="3"/>
-      <c r="GU4" s="3"/>
-      <c r="GV4" s="3"/>
-      <c r="GW4" s="3"/>
-      <c r="GX4" s="3"/>
-      <c r="GY4" s="3"/>
-      <c r="GZ4" s="3"/>
-      <c r="HA4" s="3"/>
-      <c r="HB4" s="3"/>
-      <c r="HC4" s="3"/>
-      <c r="HD4" s="3"/>
-      <c r="HH4" s="3"/>
-      <c r="HI4" s="3"/>
-      <c r="HJ4" s="3"/>
-      <c r="HK4" s="3"/>
-      <c r="HL4" s="3"/>
-      <c r="HM4" s="3"/>
-      <c r="HN4" s="3"/>
-      <c r="HO4" s="3"/>
-      <c r="HP4" s="3"/>
-      <c r="HQ4" s="3"/>
-      <c r="HR4" s="3"/>
-      <c r="HS4" s="3"/>
-      <c r="HT4" s="3"/>
-      <c r="HU4" s="3"/>
-      <c r="HV4" s="3"/>
-      <c r="HW4" s="3"/>
-      <c r="HX4" s="3"/>
-      <c r="HY4" s="3"/>
-      <c r="HZ4" s="3"/>
-      <c r="IA4" s="3"/>
-      <c r="IB4" s="3"/>
-      <c r="IC4" s="3"/>
-      <c r="ID4" s="3"/>
-      <c r="IE4" s="3"/>
-      <c r="IF4" s="3"/>
-      <c r="IG4" s="3"/>
-      <c r="IH4" s="3"/>
-      <c r="II4" s="3"/>
-      <c r="IJ4" s="3"/>
-      <c r="IK4" s="3"/>
-      <c r="IL4" s="3"/>
-      <c r="IM4" s="3"/>
-      <c r="IN4" s="3"/>
-      <c r="IO4" s="3"/>
-      <c r="IP4" s="3"/>
-      <c r="IQ4" s="3"/>
-      <c r="IR4" s="3"/>
-      <c r="IS4" s="3"/>
-      <c r="IT4" s="3"/>
-      <c r="IU4" s="3"/>
-      <c r="IV4" s="3"/>
-      <c r="IX4" s="3"/>
-      <c r="IY4" s="3"/>
-      <c r="IZ4" s="3"/>
-      <c r="JA4" s="3"/>
-      <c r="JB4" s="3"/>
-      <c r="JC4" s="3"/>
-      <c r="JD4" s="3"/>
-      <c r="JE4" s="3"/>
-      <c r="JF4" s="3"/>
-      <c r="JG4" s="3"/>
-      <c r="JH4" s="3"/>
-      <c r="JI4" s="3"/>
-      <c r="JJ4" s="3"/>
-      <c r="JK4" s="3"/>
-      <c r="JL4" s="3"/>
-      <c r="JM4" s="3"/>
-      <c r="JN4" s="3"/>
-      <c r="JO4" s="3"/>
-      <c r="JP4" s="3"/>
-      <c r="JQ4" s="3"/>
-      <c r="JR4" s="3"/>
-      <c r="JS4" s="3"/>
-      <c r="JT4" s="3"/>
-      <c r="JU4" s="3"/>
-      <c r="JV4" s="3"/>
-      <c r="JW4" s="3"/>
-      <c r="JX4" s="3"/>
-      <c r="JY4" s="3"/>
-      <c r="JZ4" s="3"/>
-      <c r="KA4" s="3"/>
-      <c r="KB4" s="3"/>
-      <c r="KC4" s="3"/>
-    </row>
-    <row r="5" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
-        <v>2.2337962962962962E-3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="M5" s="6"/>
-      <c r="AB5" s="3"/>
-    </row>
-    <row r="6" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C78" s="4">
+        <v>1.1574074074074071E-3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>3.8194444444444446E-4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>3.7037037037037041E-4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4">
+        <v>5.6712962962962956E-4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.273148148148148E-4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>7.175925925925927E-4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>4.1666666666666664E-4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1.2962962962962963E-3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>2.7893518518518515E-3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89" s="4">
+        <v>4.0972222222222226E-3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90" s="4">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91" s="4">
+        <v>5.7060185185185183E-3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4">
+        <v>7.8703703703703705E-4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4">
+        <v>8.9120370370370362E-4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" s="4">
+        <v>6.122685185185185E-3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" s="4">
+        <v>6.9444444444444436E-4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1.0532407407407407E-3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1.851851851851852E-4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1.2037037037037038E-3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4">
+        <v>2.0833333333333332E-4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" s="4">
+        <v>2.199074074074074E-4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4">
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" s="4">
+        <v>2.7430555555555554E-3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1.1226851851851851E-3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4">
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4">
+        <v>7.175925925925927E-4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" s="4">
+        <v>6.4814814814814813E-4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="4">
+        <v>2.0254629629629629E-3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1.25E-3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1.9560185185185184E-3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1.3888888888888887E-3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1.261574074074074E-3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
+        <v>7.9861111111111105E-4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>35</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122" s="4">
+        <v>6.6550925925925927E-3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1.7361111111111109E-4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1.5046296296296296E-3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" s="4">
+        <v>6.9444444444444436E-4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1.5856481481481481E-3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4">
+        <v>9.6064814814814808E-4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>35</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4">
+        <v>7.4074074074074081E-4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" s="4">
+        <v>2.4305555555555556E-3</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" s="4">
+        <v>7.6388888888888893E-4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" s="4">
+        <v>1.2731481481481483E-3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" s="4">
+        <v>3.0092592592592595E-4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1.7361111111111109E-4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1.3194444444444445E-3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1.0532407407407407E-3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1.7824074074074072E-3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" s="4">
+        <v>4.7222222222222223E-3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4">
+        <v>1.2731481481481483E-3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1.6319444444444443E-3</v>
+      </c>
+      <c r="D141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" s="4">
+        <v>5.2083333333333333E-4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1.5046296296296296E-3</v>
+      </c>
+      <c r="D143" t="s">
+        <v>34</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1.6782407407407406E-3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" s="4">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>34</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1.1458333333333331E-3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" s="4">
+        <v>8.2175925925925927E-4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1.0532407407407407E-3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>35</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" s="4">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>35</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1.7361111111111109E-4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="4">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1.4004629629629629E-3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>34</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>35</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" s="4">
+        <v>9.7222222222222209E-4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>34</v>
+      </c>
+      <c r="F155" s="3"/>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156" s="4">
+        <v>1.6550925925925926E-3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" s="3"/>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1.4814814814814816E-3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>35</v>
+      </c>
+      <c r="F157" s="3"/>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" s="4">
+        <v>5.6712962962962956E-4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>35</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" s="4">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>35</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>35</v>
+      </c>
+      <c r="F160" s="3"/>
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" s="4">
+        <v>7.0601851851851847E-4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>35</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" s="4">
+        <v>8.449074074074075E-4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" s="4">
+        <v>5.7870370370370378E-4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" s="3"/>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1.1921296296296298E-3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164" s="3"/>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" s="4">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165" s="3"/>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" s="4">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>35</v>
+      </c>
+      <c r="F166" s="3"/>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>27</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167" s="4">
+        <v>2.5347222222222221E-3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="3"/>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168" s="4">
+        <v>1.8055555555555557E-3</v>
+      </c>
+      <c r="D168" t="s">
+        <v>35</v>
+      </c>
+      <c r="F168" s="3"/>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="3"/>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" s="4">
+        <v>4.2824074074074081E-4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" s="3"/>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" s="4">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" s="3"/>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" s="4">
+        <v>4.1666666666666664E-4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="3"/>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173" s="4">
+        <v>2.1527777777777782E-3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>27</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1.2037037037037038E-3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>35</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" s="4">
+        <v>1.0532407407407407E-3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176" s="4">
+        <v>1.0648148148148147E-3</v>
+      </c>
+      <c r="D176" t="s">
+        <v>34</v>
+      </c>
+      <c r="F176" s="3"/>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" s="4">
+        <v>9.2592592592592602E-5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" s="3"/>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178" s="4">
+        <v>1.8171296296296297E-3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" s="3"/>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179" s="4">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>35</v>
+      </c>
+      <c r="F179" s="3"/>
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180" s="4">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>35</v>
+      </c>
+      <c r="F180" s="3"/>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181" s="4">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>35</v>
+      </c>
+      <c r="F181" s="3"/>
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182">
+        <v>7</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1.5162037037037036E-3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>35</v>
+      </c>
+      <c r="F182" s="3"/>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" s="4">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>34</v>
+      </c>
+      <c r="F183" s="3"/>
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184">
+        <v>8</v>
+      </c>
+      <c r="C184" s="4">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" s="3"/>
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" s="4">
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+      <c r="F185" s="3"/>
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186">
+        <v>9</v>
+      </c>
+      <c r="C186" s="4">
+        <v>4.7453703703703703E-3</v>
+      </c>
+      <c r="D186" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="3"/>
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" s="4">
+        <v>7.7546296296296293E-4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>35</v>
+      </c>
+      <c r="F187" s="3"/>
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188">
+        <v>13</v>
+      </c>
+      <c r="C188" s="4">
+        <v>4.9421296296296297E-3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189">
+        <v>7</v>
+      </c>
+      <c r="C189" s="4">
+        <v>2.0254629629629629E-3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>35</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1.3888888888888887E-3</v>
+      </c>
+      <c r="D190" t="s">
+        <v>35</v>
+      </c>
+      <c r="F190" s="3"/>
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="C191" s="4">
+        <v>4.2708333333333339E-3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191" s="3"/>
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192" s="4">
+        <v>8.5648148148148161E-4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>34</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193" s="4">
+        <v>1.5856481481481481E-3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>34</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194" s="4">
+        <v>5.7870370370370378E-4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>34</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" s="4">
+        <v>1.25E-3</v>
+      </c>
+      <c r="D195" t="s">
+        <v>34</v>
+      </c>
+      <c r="F195" s="3"/>
+      <c r="L195" s="6"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>27</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" s="4">
+        <v>7.0601851851851847E-4</v>
+      </c>
+      <c r="D196" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="L196" s="6"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197" s="4">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>34</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="L197" s="6"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>27</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198" s="4">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>35</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="L198" s="6"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199" s="4">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>35</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="L199" s="6"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" s="4">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200" s="3"/>
+      <c r="L200" s="6"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" s="4">
+        <v>5.2083333333333333E-4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201" s="3"/>
+      <c r="L201" s="6"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>27</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202" s="4">
+        <v>4.1666666666666664E-4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>34</v>
+      </c>
+      <c r="F202" s="3"/>
+      <c r="L202" s="6"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>27</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" s="4">
+        <v>4.1666666666666664E-4</v>
+      </c>
+      <c r="D203" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" s="3"/>
+      <c r="L203" s="6"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" s="4">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="D204" t="s">
+        <v>35</v>
+      </c>
+      <c r="F204" s="3"/>
+      <c r="L204" s="6"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>27</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" s="4">
+        <v>9.3750000000000007E-4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>35</v>
+      </c>
+      <c r="F205" s="3"/>
+      <c r="L205" s="6"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" s="4">
+        <v>3.2407407407407406E-4</v>
+      </c>
+      <c r="D206" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206" s="3"/>
+      <c r="L206" s="6"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207" s="4">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>34</v>
+      </c>
+      <c r="F207" s="3"/>
+      <c r="L207" s="6"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>27</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208" s="4">
+        <v>9.3750000000000007E-4</v>
+      </c>
+      <c r="D208" t="s">
+        <v>35</v>
+      </c>
+      <c r="F208" s="3"/>
+      <c r="L208" s="6"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>35</v>
+      </c>
+      <c r="F209" s="3"/>
+      <c r="L209" s="6"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210">
+        <v>8</v>
+      </c>
+      <c r="C210" s="4">
+        <v>3.1018518518518517E-3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>35</v>
+      </c>
+      <c r="F210" s="3"/>
+      <c r="L210" s="6"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>27</v>
+      </c>
+      <c r="B211">
+        <v>7</v>
+      </c>
+      <c r="C211" s="4">
+        <v>1.7939814814814817E-3</v>
+      </c>
+      <c r="D211" t="s">
+        <v>35</v>
+      </c>
+      <c r="F211" s="3"/>
+      <c r="L211" s="6"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>25</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" s="4">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>35</v>
+      </c>
+      <c r="F212" s="3"/>
+      <c r="L212" s="6"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>27</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" s="4">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>35</v>
+      </c>
+      <c r="F213" s="3"/>
+      <c r="L213" s="6"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214" s="4">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="D214" t="s">
+        <v>35</v>
+      </c>
+      <c r="F214" s="3"/>
+      <c r="L214" s="6"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>27</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" s="4">
+        <v>6.8287037037037036E-4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>34</v>
+      </c>
+      <c r="F215" s="3"/>
+      <c r="L215" s="6"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>27</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" s="4">
+        <v>4.0509259259259258E-4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>35</v>
+      </c>
+      <c r="F216" s="3"/>
+      <c r="L216" s="6"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>27</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217" s="4">
+        <v>1.6203703703703703E-3</v>
+      </c>
+      <c r="D217" t="s">
+        <v>34</v>
+      </c>
+      <c r="F217" s="3"/>
+      <c r="L217" s="6"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>27</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218" s="4">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="D218" t="s">
+        <v>34</v>
+      </c>
+      <c r="F218" s="3"/>
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>27</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219" s="4">
+        <v>8.9120370370370362E-4</v>
+      </c>
+      <c r="D219" t="s">
+        <v>34</v>
+      </c>
+      <c r="F219" s="3"/>
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>27</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220" s="4">
+        <v>6.4814814814814813E-4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>35</v>
+      </c>
+      <c r="F220" s="3"/>
+      <c r="L220" s="6"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B221">
+        <v>6</v>
+      </c>
+      <c r="C221" s="4">
+        <v>2.0138888888888888E-3</v>
+      </c>
+      <c r="D221" t="s">
+        <v>35</v>
+      </c>
+      <c r="F221" s="3"/>
+      <c r="L221" s="6"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+      <c r="C222" s="4">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="D222" t="s">
+        <v>35</v>
+      </c>
+      <c r="F222" s="3"/>
+      <c r="L222" s="6"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223" s="4">
+        <v>1.1458333333333331E-3</v>
+      </c>
+      <c r="D223" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" s="3"/>
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>25</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224" s="4">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="D224" t="s">
+        <v>34</v>
+      </c>
+      <c r="F224" s="3"/>
+      <c r="L224" s="6"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" s="4">
+        <v>6.9444444444444444E-5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>34</v>
+      </c>
+      <c r="F225" s="3"/>
+      <c r="L225" s="6"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>27</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226" s="4">
+        <v>1.3657407407407407E-3</v>
+      </c>
+      <c r="D226" t="s">
+        <v>34</v>
+      </c>
+      <c r="F226" s="3"/>
+      <c r="L226" s="6"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>27</v>
+      </c>
+      <c r="B227">
+        <v>7</v>
+      </c>
+      <c r="C227" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D227" t="s">
+        <v>35</v>
+      </c>
+      <c r="F227" s="3"/>
+      <c r="L227" s="6"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>35</v>
+      </c>
+      <c r="F228" s="3"/>
+      <c r="L228" s="6"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" s="4">
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>35</v>
+      </c>
+      <c r="F229" s="3"/>
+      <c r="L229" s="6"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230" s="4">
+        <v>1.5046296296296296E-3</v>
+      </c>
+      <c r="D230" t="s">
+        <v>34</v>
+      </c>
+      <c r="F230" s="3"/>
+      <c r="L230" s="6"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231" s="4">
+        <v>1.261574074074074E-3</v>
+      </c>
+      <c r="D231" t="s">
+        <v>34</v>
+      </c>
+      <c r="F231" s="3"/>
+      <c r="L231" s="6"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>27</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" s="4">
+        <v>9.4907407407407408E-4</v>
+      </c>
+      <c r="D232" t="s">
+        <v>35</v>
+      </c>
+      <c r="F232" s="3"/>
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233">
+        <v>5</v>
+      </c>
+      <c r="C233" s="4">
+        <v>1.7708333333333332E-3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>34</v>
+      </c>
+      <c r="F233" s="3"/>
+      <c r="L233" s="6"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" s="4">
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D234" t="s">
+        <v>35</v>
+      </c>
+      <c r="F234" s="3"/>
+      <c r="L234" s="6"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>27</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235" s="4">
+        <v>4.0509259259259258E-4</v>
+      </c>
+      <c r="D235" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235" s="3"/>
+      <c r="L235" s="6"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>27</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" s="4">
+        <v>1.3888888888888887E-3</v>
+      </c>
+      <c r="D236" t="s">
+        <v>34</v>
+      </c>
+      <c r="F236" s="3"/>
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>27</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" s="4">
+        <v>1.4467592592592594E-3</v>
+      </c>
+      <c r="D237" t="s">
+        <v>35</v>
+      </c>
+      <c r="F237" s="3"/>
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>27</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" s="4">
+        <v>1.9791666666666668E-3</v>
+      </c>
+      <c r="D238" t="s">
+        <v>34</v>
+      </c>
+      <c r="F238" s="3"/>
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" s="4">
+        <v>4.9768518518518521E-4</v>
+      </c>
+      <c r="D239" t="s">
+        <v>34</v>
+      </c>
+      <c r="F239" s="3"/>
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>27</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240" s="4">
+        <v>9.6064814814814808E-4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>35</v>
+      </c>
+      <c r="F240" s="3"/>
+      <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>27</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241" s="4">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>34</v>
+      </c>
+      <c r="F241" s="3"/>
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>27</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242" s="4">
+        <v>1.7129629629629632E-3</v>
+      </c>
+      <c r="D242" t="s">
+        <v>34</v>
+      </c>
+      <c r="F242" s="3"/>
+      <c r="L242" s="6"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>27</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243" s="4">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>35</v>
+      </c>
+      <c r="F243" s="3"/>
+      <c r="L243" s="6"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>27</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244" s="4">
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>34</v>
+      </c>
+      <c r="F244" s="3"/>
+      <c r="L244" s="6"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>27</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" s="4">
+        <v>1.0879629629629631E-3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>35</v>
+      </c>
+      <c r="F245" s="3"/>
+      <c r="L245" s="6"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246" s="4">
+        <v>1.0532407407407407E-3</v>
+      </c>
+      <c r="D246" t="s">
+        <v>35</v>
+      </c>
+      <c r="F246" s="3"/>
+      <c r="L246" s="6"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" s="4">
+        <v>1.7824074074074072E-3</v>
+      </c>
+      <c r="D247" t="s">
+        <v>35</v>
+      </c>
+      <c r="F247" s="3"/>
+      <c r="L247" s="6"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248" s="4">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.0601851851851853E-3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.6087962962962961E-3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
+      <c r="D248" t="s">
+        <v>34</v>
+      </c>
+      <c r="F248" s="3"/>
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" s="4">
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D249" t="s">
+        <v>34</v>
+      </c>
+      <c r="F249" s="3"/>
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>27</v>
+      </c>
+      <c r="B250">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
-        <v>2.8472222222222219E-3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.6203703703703703E-4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4.7453703703703704E-4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C250" s="4">
+        <v>8.7962962962962962E-4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>35</v>
+      </c>
+      <c r="F250" s="3"/>
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251" s="4">
         <v>1.7476851851851852E-3</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.3888888888888887E-3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2.0949074074074073E-3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:289" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D251" t="s">
+        <v>34</v>
+      </c>
+      <c r="F251" s="3"/>
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>27</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252" s="4">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>34</v>
+      </c>
+      <c r="F252" s="3"/>
+      <c r="L252" s="6"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>27</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253" s="4">
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D253" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" s="3"/>
+      <c r="L253" s="6"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>27</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="C254" s="4">
+        <v>8.7962962962962962E-4</v>
+      </c>
+      <c r="D254" t="s">
+        <v>35</v>
+      </c>
+      <c r="F254" s="3"/>
+      <c r="L254" s="6"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255">
         <v>4</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.7361111111111112E-3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.1574074074074071E-3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.6157407407407405E-3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5.9027777777777778E-4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2.0717592592592593E-3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6.9444444444444436E-4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.8634259259259259E-3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1.1342592592592591E-3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2.7546296296296294E-3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1.7708333333333332E-3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>8.6805555555555562E-4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1.6203703703703703E-3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>6.7129629629629635E-4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.8518518518518517E-3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5.6018518518518518E-3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5.7870370370370366E-5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1.0416666666666666E-4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1.0416666666666667E-3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4">
-        <v>8.1018518518518516E-5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2.8935185185185189E-4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="M41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1.3773148148148147E-3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4">
-        <v>9.3750000000000007E-4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4">
-        <v>3.2407407407407406E-4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1.0995370370370371E-3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>8.449074074074075E-4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>8.2175925925925927E-4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>7.7546296296296293E-4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1.9097222222222222E-3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="M51" s="6"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2.4305555555555552E-4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="M52" s="6"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4">
-        <v>8.2175925925925927E-4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="M53" s="6"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2.2222222222222222E-3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="M54" s="6"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4">
-        <v>4.3981481481481481E-4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="M55" s="6"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56" s="4">
-        <v>3.2523148148148147E-3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="M56" s="6"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1.0416666666666667E-3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="M57" s="6"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1.4004629629629629E-3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="M58" s="6"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4">
-        <v>2.1180555555555553E-3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="M59" s="6"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1.6782407407407406E-3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="M60" s="6"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61" s="4">
-        <v>5.3240740740740744E-4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="M61" s="6"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" s="4">
-        <v>7.9861111111111105E-4</v>
-      </c>
-      <c r="E62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="M62" s="6"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="E63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="M63" s="6"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4">
-        <v>2.8935185185185189E-4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="M64" s="6"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4">
-        <v>8.1018518518518516E-4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="M65" s="6"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1.6203703703703703E-4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="M66" s="6"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="4">
-        <v>6.9444444444444444E-5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>4.6296296296296301E-5</v>
-      </c>
-      <c r="E68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1.7361111111111109E-4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="M69" s="6"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70" s="4">
-        <v>4.6296296296296301E-5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="M70" s="6"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1.273148148148148E-4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="M71" s="6"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4">
-        <v>2.314814814814815E-5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="M72" s="6"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4">
-        <v>9.2592592592592602E-5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="M73" s="6"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4">
-        <v>3.4722222222222222E-5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="M74" s="6"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75" s="4">
-        <v>4.6296296296296301E-5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="M75" s="6"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1.5046296296296297E-4</v>
-      </c>
-      <c r="E76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="M76" s="6"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77" s="4">
-        <v>3.4722222222222222E-5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="M77" s="6"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" s="4">
-        <v>2.7777777777777778E-4</v>
-      </c>
-      <c r="E78" t="s">
-        <v>35</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="M78" s="6"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79" s="4">
-        <v>4.5138888888888892E-4</v>
-      </c>
-      <c r="E79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="M79" s="6"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="M80" s="6"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1.5046296296296297E-4</v>
-      </c>
-      <c r="E81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="M81" s="6"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1.6203703703703703E-4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="M82" s="6"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1.1574074074074071E-3</v>
-      </c>
-      <c r="E83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84" s="4">
-        <v>3.8194444444444446E-4</v>
-      </c>
-      <c r="E84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="M84" s="6"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" s="4">
-        <v>2.488425925925926E-3</v>
-      </c>
-      <c r="E85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="M85" s="6"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" s="4">
-        <v>3.7037037037037041E-4</v>
-      </c>
-      <c r="E86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="M86" s="6"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" s="4">
-        <v>5.6712962962962956E-4</v>
-      </c>
-      <c r="E87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="M87" s="6"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>5</v>
-      </c>
-      <c r="D88" s="4">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="E88" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="M88" s="6"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" s="4">
-        <v>7.175925925925927E-4</v>
-      </c>
-      <c r="E89" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="M89" s="6"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90" s="4">
-        <v>4.1666666666666664E-4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="M90" s="6"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1.2962962962962963E-3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="M91" s="6"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92" s="4">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="E92" t="s">
-        <v>34</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="M92" s="6"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93" s="4">
-        <v>2.0023148148148148E-3</v>
-      </c>
-      <c r="E93" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="M93" s="6"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>4</v>
-      </c>
-      <c r="D94" s="4">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="E94" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="M94" s="6"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95" s="4">
-        <v>2.7893518518518515E-3</v>
-      </c>
-      <c r="E95" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="M95" s="6"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D96" s="4">
-        <v>0</v>
-      </c>
-      <c r="M96" s="6"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97">
-        <v>7</v>
-      </c>
-      <c r="D97" s="4">
-        <v>4.0972222222222226E-3</v>
-      </c>
-      <c r="E97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="M97" s="6"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98">
-        <v>14</v>
-      </c>
-      <c r="D98" s="4">
-        <v>6.1342592592592594E-3</v>
-      </c>
-      <c r="E98" t="s">
-        <v>35</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="M98" s="6"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
-      </c>
-      <c r="D99" s="4">
-        <v>5.7060185185185183E-3</v>
-      </c>
-      <c r="E99" t="s">
-        <v>35</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="M99" s="6"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" s="4">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="E100" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="M100" s="6"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D101" s="4">
-        <v>0</v>
-      </c>
-      <c r="M101" s="6"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102" s="4">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="E102" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="M102" s="6"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103" s="4">
-        <v>7.8703703703703705E-4</v>
-      </c>
-      <c r="E103" t="s">
-        <v>35</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="M103" s="6"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104" t="s">
-        <v>27</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104" s="4">
-        <v>8.9120370370370362E-4</v>
-      </c>
-      <c r="E104" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="M104" s="6"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="M105" s="6"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106" t="s">
-        <v>27</v>
-      </c>
-      <c r="C106">
-        <v>7</v>
-      </c>
-      <c r="D106" s="4">
-        <v>6.122685185185185E-3</v>
-      </c>
-      <c r="E106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="M106" s="6"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="M107" s="6"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108" s="4">
-        <v>6.9444444444444436E-4</v>
-      </c>
-      <c r="E108" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="M108" s="6"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1.0532407407407407E-3</v>
-      </c>
-      <c r="E109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="M109" s="6"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110" t="s">
-        <v>27</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1.851851851851852E-4</v>
-      </c>
-      <c r="E110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="M110" s="6"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>4</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D111" s="4">
-        <v>7.4074074074074081E-4</v>
-      </c>
-      <c r="E111" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="M111" s="6"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>4</v>
-      </c>
-      <c r="D112" s="4">
-        <v>3.3564814814814818E-4</v>
-      </c>
-      <c r="E112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="M112" s="6"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113" t="s">
-        <v>27</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1.2037037037037038E-3</v>
-      </c>
-      <c r="E113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="M113" s="6"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>4</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" s="4">
-        <v>2.6041666666666665E-3</v>
-      </c>
-      <c r="E114" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="M114" s="6"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115" t="s">
-        <v>27</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115" s="4">
-        <v>2.0833333333333332E-4</v>
-      </c>
-      <c r="E115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="M115" s="6"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
-        <v>27</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" s="4">
-        <v>2.199074074074074E-4</v>
-      </c>
-      <c r="E116" t="s">
-        <v>35</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="M116" s="6"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="4">
-        <v>2.7777777777777778E-4</v>
-      </c>
-      <c r="E117" t="s">
-        <v>34</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="M117" s="6"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118" s="4">
-        <v>5.7870370370370366E-5</v>
-      </c>
-      <c r="E118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="M118" s="6"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119">
-        <v>4</v>
-      </c>
-      <c r="D119" s="4">
-        <v>2.7430555555555554E-3</v>
-      </c>
-      <c r="E119" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="M119" s="6"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" s="4">
-        <v>1.1226851851851851E-3</v>
-      </c>
-      <c r="E120" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="M120" s="6"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-      <c r="D121" s="4">
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="E121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="M121" s="6"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>4</v>
-      </c>
-      <c r="D122" s="4">
-        <v>1.1574074074074071E-3</v>
-      </c>
-      <c r="E122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="M122" s="6"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123" s="4">
-        <v>7.175925925925927E-4</v>
-      </c>
-      <c r="E123" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="M123" s="6"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124" t="s">
-        <v>27</v>
-      </c>
-      <c r="C124">
-        <v>3</v>
-      </c>
-      <c r="D124" s="4">
-        <v>1.0416666666666667E-3</v>
-      </c>
-      <c r="E124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="M124" s="6"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125" s="4">
-        <v>6.4814814814814813E-4</v>
-      </c>
-      <c r="E125" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="M125" s="6"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126" t="s">
-        <v>27</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126" s="4">
-        <v>1.3888888888888889E-4</v>
-      </c>
-      <c r="E126" t="s">
-        <v>35</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="M126" s="6"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127" t="s">
-        <v>27</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" s="4">
-        <v>2.0254629629629629E-3</v>
-      </c>
-      <c r="E127" t="s">
-        <v>35</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="M127" s="6"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-      <c r="D128" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E128" t="s">
-        <v>35</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="M128" s="6"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129" t="s">
-        <v>27</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129" s="4">
-        <v>1.25E-3</v>
-      </c>
-      <c r="E129" t="s">
-        <v>35</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="M129" s="6"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130" t="s">
-        <v>27</v>
-      </c>
-      <c r="C130">
-        <v>6</v>
-      </c>
-      <c r="D130" s="4">
-        <v>1.9560185185185184E-3</v>
-      </c>
-      <c r="E130" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="M130" s="6"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1</v>
-      </c>
-      <c r="B131" t="s">
-        <v>27</v>
-      </c>
-      <c r="C131">
-        <v>3</v>
-      </c>
-      <c r="D131" s="4">
-        <v>1.3888888888888887E-3</v>
-      </c>
-      <c r="E131" t="s">
-        <v>35</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="M131" s="6"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132" t="s">
-        <v>27</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" s="4">
-        <v>9.2592592592592585E-4</v>
-      </c>
-      <c r="E132" t="s">
-        <v>35</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="M132" s="6"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133" t="s">
-        <v>27</v>
-      </c>
-      <c r="C133">
-        <v>2</v>
-      </c>
-      <c r="D133" s="4">
-        <v>1.261574074074074E-3</v>
-      </c>
-      <c r="E133" t="s">
-        <v>35</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="M133" s="6"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>5</v>
-      </c>
-      <c r="D134" s="4">
-        <v>1.5046296296296297E-4</v>
-      </c>
-      <c r="E134" t="s">
-        <v>35</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="M134" s="6"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135" s="4">
-        <v>7.9861111111111105E-4</v>
-      </c>
-      <c r="E135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" s="3"/>
-      <c r="M135" s="6"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136" t="s">
-        <v>27</v>
-      </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-      <c r="D136" s="4">
-        <v>6.6550925925925927E-3</v>
-      </c>
-      <c r="E136" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136" s="3"/>
-      <c r="M136" s="6"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137">
-        <v>2</v>
-      </c>
-      <c r="D137" s="4">
-        <v>1.7361111111111109E-4</v>
-      </c>
-      <c r="E137" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="M137" s="6"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138" s="4">
-        <v>1.5046296296296296E-3</v>
-      </c>
-      <c r="E138" t="s">
-        <v>35</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="M138" s="6"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1</v>
-      </c>
-      <c r="B139" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139" s="4">
-        <v>6.9444444444444436E-4</v>
-      </c>
-      <c r="E139" t="s">
-        <v>35</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="M139" s="6"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1</v>
-      </c>
-      <c r="B140" t="s">
-        <v>27</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140" s="4">
-        <v>1.5856481481481481E-3</v>
-      </c>
-      <c r="E140" t="s">
-        <v>35</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="M140" s="6"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1</v>
-      </c>
-      <c r="B141" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141" s="4">
-        <v>9.6064814814814808E-4</v>
-      </c>
-      <c r="E141" t="s">
-        <v>35</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="M141" s="6"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142" t="s">
-        <v>27</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142" s="4">
-        <v>2.5462962962962961E-4</v>
-      </c>
-      <c r="E142" t="s">
-        <v>35</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="M142" s="6"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="B143" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" s="4">
-        <v>7.4074074074074081E-4</v>
-      </c>
-      <c r="E143" t="s">
-        <v>35</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="M143" s="6"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144">
-        <v>6</v>
-      </c>
-      <c r="D144" s="4">
-        <v>2.4305555555555556E-3</v>
-      </c>
-      <c r="E144" t="s">
-        <v>35</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="M144" s="6"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145" s="4">
-        <v>7.6388888888888893E-4</v>
-      </c>
-      <c r="E145" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="M145" s="6"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146">
-        <v>3</v>
-      </c>
-      <c r="D146" s="4">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="E146" t="s">
-        <v>35</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="M146" s="6"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147" t="s">
-        <v>27</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147" s="4">
-        <v>3.0092592592592595E-4</v>
-      </c>
-      <c r="E147" t="s">
-        <v>35</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="M147" s="6"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148" s="4">
-        <v>1.7361111111111109E-4</v>
-      </c>
-      <c r="E148" t="s">
-        <v>35</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="M148" s="6"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149">
-        <v>5</v>
-      </c>
-      <c r="D149" s="4">
-        <v>1.3194444444444445E-3</v>
-      </c>
-      <c r="E149" t="s">
-        <v>35</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="M149" s="6"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" s="4">
-        <v>2.7777777777777778E-4</v>
-      </c>
-      <c r="E150" t="s">
-        <v>35</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="M150" s="6"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="B151" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151">
-        <v>2</v>
-      </c>
-      <c r="D151" s="4">
-        <v>1.0532407407407407E-3</v>
-      </c>
-      <c r="E151" t="s">
-        <v>35</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="M151" s="6"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152">
-        <v>3</v>
-      </c>
-      <c r="D152" s="4">
-        <v>1.7824074074074072E-3</v>
-      </c>
-      <c r="E152" t="s">
-        <v>35</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="M152" s="6"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153">
-        <v>4</v>
-      </c>
-      <c r="D153" s="4">
-        <v>4.7222222222222223E-3</v>
-      </c>
-      <c r="E153" t="s">
-        <v>35</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="M153" s="6"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1</v>
-      </c>
-      <c r="B154" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154" s="4">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="E154" t="s">
-        <v>35</v>
-      </c>
-      <c r="G154" s="3"/>
-      <c r="M154" s="6"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="B155" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155">
-        <v>3</v>
-      </c>
-      <c r="D155" s="4">
-        <v>1.6319444444444443E-3</v>
-      </c>
-      <c r="E155" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" s="3"/>
-      <c r="M155" s="6"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156" t="s">
-        <v>27</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156" s="4">
-        <v>5.2083333333333333E-4</v>
-      </c>
-      <c r="E156" t="s">
-        <v>35</v>
-      </c>
-      <c r="G156" s="3"/>
-      <c r="M156" s="6"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1</v>
-      </c>
-      <c r="B157" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157" s="4">
-        <v>1.5046296296296296E-3</v>
-      </c>
-      <c r="E157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G157" s="3"/>
-      <c r="M157" s="6"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1</v>
-      </c>
-      <c r="B158" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158">
-        <v>3</v>
-      </c>
-      <c r="D158" s="4">
-        <v>1.6782407407407406E-3</v>
-      </c>
-      <c r="E158" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" s="3"/>
-      <c r="M158" s="6"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1</v>
-      </c>
-      <c r="B159" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159" s="4">
-        <v>3.5879629629629635E-4</v>
-      </c>
-      <c r="E159" t="s">
-        <v>34</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="M159" s="6"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160" t="s">
-        <v>27</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160" s="4">
-        <v>1.1458333333333331E-3</v>
-      </c>
-      <c r="E160" t="s">
-        <v>34</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="M160" s="6"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>1</v>
-      </c>
-      <c r="B161" t="s">
-        <v>27</v>
-      </c>
-      <c r="C161">
-        <v>2</v>
-      </c>
-      <c r="D161" s="4">
-        <v>8.2175925925925927E-4</v>
-      </c>
-      <c r="E161" t="s">
-        <v>34</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="M161" s="6"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162" s="4">
-        <v>1.0532407407407407E-3</v>
-      </c>
-      <c r="E162" t="s">
-        <v>35</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="M162" s="6"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163" t="s">
-        <v>27</v>
-      </c>
-      <c r="C163">
-        <v>3</v>
-      </c>
-      <c r="D163" s="4">
-        <v>1.1111111111111111E-3</v>
-      </c>
-      <c r="E163" t="s">
-        <v>35</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="M163" s="6"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164" t="s">
-        <v>27</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164" s="4">
-        <v>5.5555555555555556E-4</v>
-      </c>
-      <c r="E164" t="s">
-        <v>35</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165" t="s">
-        <v>25</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165" s="4">
-        <v>1.7361111111111109E-4</v>
-      </c>
-      <c r="E165" t="s">
-        <v>35</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="M165" s="6"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166" t="s">
-        <v>27</v>
-      </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166" s="4">
-        <v>8.1018518518518516E-4</v>
-      </c>
-      <c r="E166" t="s">
-        <v>34</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="M166" s="6"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>4</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D167" s="4">
+      <c r="C255" s="4">
         <v>1.7476851851851852E-3</v>
       </c>
-      <c r="E167" t="s">
-        <v>34</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="M167" s="6"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168" t="s">
-        <v>27</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168" s="4">
-        <v>1.4004629629629629E-3</v>
-      </c>
-      <c r="E168" t="s">
-        <v>34</v>
-      </c>
-      <c r="G168" s="3"/>
-      <c r="M168" s="6"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169" t="s">
-        <v>27</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169" s="4">
-        <v>1.0416666666666667E-3</v>
-      </c>
-      <c r="E169" t="s">
-        <v>35</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="M169" s="6"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170" t="s">
-        <v>27</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170" s="4">
-        <v>9.7222222222222209E-4</v>
-      </c>
-      <c r="E170" t="s">
-        <v>34</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="M170" s="6"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171" t="s">
-        <v>27</v>
-      </c>
-      <c r="C171">
-        <v>3</v>
-      </c>
-      <c r="D171" s="4">
-        <v>1.6550925925925926E-3</v>
-      </c>
-      <c r="E171" t="s">
-        <v>35</v>
-      </c>
-      <c r="G171" s="3"/>
-      <c r="M171" s="6"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172" t="s">
-        <v>27</v>
-      </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-      <c r="D172" s="4">
-        <v>1.4814814814814816E-3</v>
-      </c>
-      <c r="E172" t="s">
-        <v>35</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="M172" s="6"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173" t="s">
-        <v>27</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173" s="4">
-        <v>5.6712962962962956E-4</v>
-      </c>
-      <c r="E173" t="s">
-        <v>35</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="M173" s="6"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174" t="s">
-        <v>27</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174" s="4">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="E174" t="s">
-        <v>35</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="M174" s="6"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175" t="s">
-        <v>27</v>
-      </c>
-      <c r="C175">
-        <v>2</v>
-      </c>
-      <c r="D175" s="4">
-        <v>1.1111111111111111E-3</v>
-      </c>
-      <c r="E175" t="s">
-        <v>35</v>
-      </c>
-      <c r="G175" s="3"/>
-      <c r="M175" s="6"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176" t="s">
-        <v>27</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176" s="4">
-        <v>7.0601851851851847E-4</v>
-      </c>
-      <c r="E176" t="s">
-        <v>35</v>
-      </c>
-      <c r="G176" s="3"/>
-      <c r="M176" s="6"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>4</v>
-      </c>
-      <c r="D177" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E177" t="s">
-        <v>34</v>
-      </c>
-      <c r="G177" s="3"/>
-      <c r="M177" s="6"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178" t="s">
-        <v>27</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178" s="4">
-        <v>8.449074074074075E-4</v>
-      </c>
-      <c r="E178" t="s">
-        <v>35</v>
-      </c>
-      <c r="G178" s="3"/>
-      <c r="M178" s="6"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179" t="s">
-        <v>27</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179" s="4">
-        <v>5.7870370370370378E-4</v>
-      </c>
-      <c r="E179" t="s">
-        <v>34</v>
-      </c>
-      <c r="G179" s="3"/>
-      <c r="M179" s="6"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180" t="s">
-        <v>27</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180" s="4">
-        <v>1.1921296296296298E-3</v>
-      </c>
-      <c r="E180" t="s">
-        <v>34</v>
-      </c>
-      <c r="G180" s="3"/>
-      <c r="M180" s="6"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181" t="s">
-        <v>27</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181" s="4">
-        <v>5.0925925925925921E-4</v>
-      </c>
-      <c r="E181" t="s">
-        <v>35</v>
-      </c>
-      <c r="G181" s="3"/>
-      <c r="M181" s="6"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1</v>
-      </c>
-      <c r="B182" t="s">
-        <v>27</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-      <c r="D182" s="4">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="E182" t="s">
-        <v>35</v>
-      </c>
-      <c r="G182" s="3"/>
-      <c r="M182" s="6"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183" t="s">
-        <v>27</v>
-      </c>
-      <c r="C183">
-        <v>3</v>
-      </c>
-      <c r="D183" s="4">
-        <v>2.5347222222222221E-3</v>
-      </c>
-      <c r="E183" t="s">
-        <v>34</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="M183" s="6"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184" t="s">
-        <v>27</v>
-      </c>
-      <c r="C184">
-        <v>3</v>
-      </c>
-      <c r="D184" s="4">
-        <v>1.8055555555555557E-3</v>
-      </c>
-      <c r="E184" t="s">
-        <v>35</v>
-      </c>
-      <c r="G184" s="3"/>
-      <c r="M184" s="6"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185" t="s">
-        <v>27</v>
-      </c>
-      <c r="C185">
-        <v>3</v>
-      </c>
-      <c r="D185" s="4">
-        <v>1.6666666666666666E-3</v>
-      </c>
-      <c r="E185" t="s">
-        <v>34</v>
-      </c>
-      <c r="G185" s="3"/>
-      <c r="M185" s="6"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186" t="s">
-        <v>27</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186" s="4">
-        <v>4.2824074074074081E-4</v>
-      </c>
-      <c r="E186" t="s">
-        <v>34</v>
-      </c>
-      <c r="G186" s="3"/>
-      <c r="M186" s="6"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187" t="s">
-        <v>27</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187" s="4">
-        <v>5.7870370370370366E-5</v>
-      </c>
-      <c r="E187" t="s">
-        <v>35</v>
-      </c>
-      <c r="G187" s="3"/>
-      <c r="M187" s="6"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188" t="s">
-        <v>27</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188" s="4">
-        <v>4.1666666666666664E-4</v>
-      </c>
-      <c r="E188" t="s">
-        <v>34</v>
-      </c>
-      <c r="G188" s="3"/>
-      <c r="M188" s="6"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189" t="s">
-        <v>27</v>
-      </c>
-      <c r="C189">
-        <v>6</v>
-      </c>
-      <c r="D189" s="4">
-        <v>2.1527777777777782E-3</v>
-      </c>
-      <c r="E189" t="s">
-        <v>34</v>
-      </c>
-      <c r="G189" s="3"/>
-      <c r="M189" s="6"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190" t="s">
-        <v>27</v>
-      </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
-      <c r="D190" s="4">
-        <v>1.2037037037037038E-3</v>
-      </c>
-      <c r="E190" t="s">
-        <v>35</v>
-      </c>
-      <c r="G190" s="3"/>
-      <c r="M190" s="6"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191" t="s">
-        <v>27</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191" s="4">
-        <v>1.0532407407407407E-3</v>
-      </c>
-      <c r="E191" t="s">
-        <v>34</v>
-      </c>
-      <c r="G191" s="3"/>
-      <c r="M191" s="6"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192" t="s">
-        <v>27</v>
-      </c>
-      <c r="C192">
-        <v>4</v>
-      </c>
-      <c r="D192" s="4">
-        <v>1.0648148148148147E-3</v>
-      </c>
-      <c r="E192" t="s">
-        <v>34</v>
-      </c>
-      <c r="G192" s="3"/>
-      <c r="M192" s="6"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193" t="s">
-        <v>25</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193" s="4">
-        <v>9.2592592592592602E-5</v>
-      </c>
-      <c r="E193" t="s">
-        <v>34</v>
-      </c>
-      <c r="G193" s="3"/>
-      <c r="M193" s="6"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1</v>
-      </c>
-      <c r="B194" t="s">
-        <v>27</v>
-      </c>
-      <c r="C194">
-        <v>3</v>
-      </c>
-      <c r="D194" s="4">
-        <v>1.8171296296296297E-3</v>
-      </c>
-      <c r="E194" t="s">
-        <v>35</v>
-      </c>
-      <c r="G194" s="3"/>
-      <c r="M194" s="6"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1</v>
-      </c>
-      <c r="B195" t="s">
-        <v>25</v>
-      </c>
-      <c r="C195">
-        <v>2</v>
-      </c>
-      <c r="D195" s="4">
-        <v>4.5138888888888892E-4</v>
-      </c>
-      <c r="E195" t="s">
-        <v>35</v>
-      </c>
-      <c r="G195" s="3"/>
-      <c r="M195" s="6"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>1</v>
-      </c>
-      <c r="B196" t="s">
-        <v>27</v>
-      </c>
-      <c r="C196">
-        <v>2</v>
-      </c>
-      <c r="D196" s="4">
-        <v>5.0925925925925921E-4</v>
-      </c>
-      <c r="E196" t="s">
-        <v>35</v>
-      </c>
-      <c r="G196" s="3"/>
-      <c r="M196" s="6"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1</v>
-      </c>
-      <c r="B197" t="s">
-        <v>25</v>
-      </c>
-      <c r="C197">
-        <v>2</v>
-      </c>
-      <c r="D197" s="4">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="E197" t="s">
-        <v>35</v>
-      </c>
-      <c r="G197" s="3"/>
-      <c r="M197" s="6"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1</v>
-      </c>
-      <c r="B198" t="s">
-        <v>27</v>
-      </c>
-      <c r="C198">
-        <v>7</v>
-      </c>
-      <c r="D198" s="4">
-        <v>1.5162037037037036E-3</v>
-      </c>
-      <c r="E198" t="s">
-        <v>35</v>
-      </c>
-      <c r="G198" s="3"/>
-      <c r="M198" s="6"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>5</v>
-      </c>
-      <c r="D199" s="4">
-        <v>2.7777777777777778E-4</v>
-      </c>
-      <c r="E199" t="s">
-        <v>35</v>
-      </c>
-      <c r="G199" s="3"/>
-      <c r="M199" s="6"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1</v>
-      </c>
-      <c r="B200" t="s">
-        <v>27</v>
-      </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-      <c r="D200" s="4">
-        <v>6.018518518518519E-4</v>
-      </c>
-      <c r="E200" t="s">
-        <v>34</v>
-      </c>
-      <c r="G200" s="3"/>
-      <c r="M200" s="6"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="B201" t="s">
-        <v>27</v>
-      </c>
-      <c r="C201">
-        <v>8</v>
-      </c>
-      <c r="D201" s="4">
-        <v>1.689814814814815E-3</v>
-      </c>
-      <c r="E201" t="s">
-        <v>35</v>
-      </c>
-      <c r="G201" s="3"/>
-      <c r="M201" s="6"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>1</v>
-      </c>
-      <c r="B202" t="s">
-        <v>27</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202" s="4">
-        <v>4.8611111111111104E-4</v>
-      </c>
-      <c r="E202" t="s">
-        <v>35</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="M202" s="6"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>1</v>
-      </c>
-      <c r="B203" t="s">
-        <v>27</v>
-      </c>
-      <c r="C203">
-        <v>9</v>
-      </c>
-      <c r="D203" s="4">
-        <v>4.7453703703703703E-3</v>
-      </c>
-      <c r="E203" t="s">
-        <v>34</v>
-      </c>
-      <c r="G203" s="3"/>
-      <c r="M203" s="6"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204" t="s">
-        <v>27</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204" s="4">
-        <v>7.7546296296296293E-4</v>
-      </c>
-      <c r="E204" t="s">
-        <v>35</v>
-      </c>
-      <c r="G204" s="3"/>
-      <c r="M204" s="6"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205" t="s">
-        <v>27</v>
-      </c>
-      <c r="C205">
-        <v>13</v>
-      </c>
-      <c r="D205" s="4">
-        <v>4.9421296296296297E-3</v>
-      </c>
-      <c r="E205" t="s">
-        <v>34</v>
-      </c>
-      <c r="G205" s="3"/>
-      <c r="M205" s="6"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>1</v>
-      </c>
-      <c r="B206" t="s">
-        <v>27</v>
-      </c>
-      <c r="C206">
-        <v>7</v>
-      </c>
-      <c r="D206" s="4">
-        <v>2.0254629629629629E-3</v>
-      </c>
-      <c r="E206" t="s">
-        <v>35</v>
-      </c>
-      <c r="G206" s="3"/>
-      <c r="M206" s="6"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207" t="s">
-        <v>27</v>
-      </c>
-      <c r="C207">
-        <v>2</v>
-      </c>
-      <c r="D207" s="4">
-        <v>1.3888888888888887E-3</v>
-      </c>
-      <c r="E207" t="s">
-        <v>35</v>
-      </c>
-      <c r="G207" s="3"/>
-      <c r="M207" s="6"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208" t="s">
-        <v>27</v>
-      </c>
-      <c r="C208">
-        <v>7</v>
-      </c>
-      <c r="D208" s="4">
-        <v>4.2708333333333339E-3</v>
-      </c>
-      <c r="E208" t="s">
-        <v>34</v>
-      </c>
-      <c r="G208" s="3"/>
-      <c r="M208" s="6"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209" t="s">
-        <v>27</v>
-      </c>
-      <c r="C209">
-        <v>3</v>
-      </c>
-      <c r="D209" s="4">
-        <v>8.5648148148148161E-4</v>
-      </c>
-      <c r="E209" t="s">
-        <v>34</v>
-      </c>
-      <c r="G209" s="3"/>
-      <c r="M209" s="6"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210" t="s">
-        <v>27</v>
-      </c>
-      <c r="C210">
-        <v>2</v>
-      </c>
-      <c r="D210" s="4">
-        <v>1.5856481481481481E-3</v>
-      </c>
-      <c r="E210" t="s">
-        <v>34</v>
-      </c>
-      <c r="G210" s="3"/>
-      <c r="M210" s="6"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211" t="s">
-        <v>27</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-      <c r="D211" s="4">
-        <v>5.7870370370370378E-4</v>
-      </c>
-      <c r="E211" t="s">
-        <v>34</v>
-      </c>
-      <c r="G211" s="3"/>
-      <c r="M211" s="6"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212" t="s">
-        <v>27</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212" s="4">
-        <v>1.25E-3</v>
-      </c>
-      <c r="E212" t="s">
-        <v>34</v>
-      </c>
-      <c r="G212" s="3"/>
-      <c r="M212" s="6"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1</v>
-      </c>
-      <c r="B213" t="s">
-        <v>27</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213" s="4">
-        <v>7.0601851851851847E-4</v>
-      </c>
-      <c r="E213" t="s">
-        <v>35</v>
-      </c>
-      <c r="G213" s="3"/>
-      <c r="M213" s="6"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214" t="s">
-        <v>27</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214" s="4">
-        <v>5.5555555555555556E-4</v>
-      </c>
-      <c r="E214" t="s">
-        <v>34</v>
-      </c>
-      <c r="G214" s="3"/>
-      <c r="M214" s="6"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="B215" t="s">
-        <v>27</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="D215" s="4">
-        <v>5.5555555555555556E-4</v>
-      </c>
-      <c r="E215" t="s">
-        <v>35</v>
-      </c>
-      <c r="G215" s="3"/>
-      <c r="M215" s="6"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216" t="s">
-        <v>27</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216" s="4">
-        <v>4.5138888888888892E-4</v>
-      </c>
-      <c r="E216" t="s">
-        <v>35</v>
-      </c>
-      <c r="G216" s="3"/>
-      <c r="M216" s="6"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217" t="s">
-        <v>27</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="D217" s="4">
-        <v>1.2152777777777778E-3</v>
-      </c>
-      <c r="E217" t="s">
-        <v>34</v>
-      </c>
-      <c r="G217" s="3"/>
-      <c r="M217" s="6"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>1</v>
-      </c>
-      <c r="B218" t="s">
-        <v>27</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218" s="4">
-        <v>5.2083333333333333E-4</v>
-      </c>
-      <c r="E218" t="s">
-        <v>35</v>
-      </c>
-      <c r="G218" s="3"/>
-      <c r="M218" s="6"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219" t="s">
-        <v>27</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219" s="4">
-        <v>4.1666666666666664E-4</v>
-      </c>
-      <c r="E219" t="s">
-        <v>34</v>
-      </c>
-      <c r="G219" s="3"/>
-      <c r="M219" s="6"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220" t="s">
-        <v>27</v>
-      </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220" s="4">
-        <v>4.1666666666666664E-4</v>
-      </c>
-      <c r="E220" t="s">
-        <v>35</v>
-      </c>
-      <c r="G220" s="3"/>
-      <c r="M220" s="6"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221" t="s">
-        <v>27</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221" s="4">
-        <v>4.5138888888888892E-4</v>
-      </c>
-      <c r="E221" t="s">
-        <v>35</v>
-      </c>
-      <c r="G221" s="3"/>
-      <c r="M221" s="6"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222" t="s">
-        <v>27</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222" s="4">
-        <v>9.3750000000000007E-4</v>
-      </c>
-      <c r="E222" t="s">
-        <v>35</v>
-      </c>
-      <c r="G222" s="3"/>
-      <c r="M222" s="6"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223" t="s">
-        <v>27</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-      <c r="D223" s="4">
-        <v>3.2407407407407406E-4</v>
-      </c>
-      <c r="E223" t="s">
-        <v>34</v>
-      </c>
-      <c r="G223" s="3"/>
-      <c r="M223" s="6"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224" t="s">
-        <v>27</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-      <c r="D224" s="4">
-        <v>5.5555555555555556E-4</v>
-      </c>
-      <c r="E224" t="s">
-        <v>34</v>
-      </c>
-      <c r="G224" s="3"/>
-      <c r="M224" s="6"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>4</v>
-      </c>
-      <c r="D225" s="4">
-        <v>1.25E-3</v>
-      </c>
-      <c r="E225" t="s">
-        <v>34</v>
-      </c>
-      <c r="G225" s="3"/>
-      <c r="M225" s="6"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226" t="s">
-        <v>27</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226" s="4">
-        <v>9.3750000000000007E-4</v>
-      </c>
-      <c r="E226" t="s">
-        <v>35</v>
-      </c>
-      <c r="G226" s="3"/>
-      <c r="M226" s="6"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>1</v>
-      </c>
-      <c r="B227" t="s">
-        <v>25</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E227" t="s">
-        <v>35</v>
-      </c>
-      <c r="G227" s="3"/>
-      <c r="M227" s="6"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>1</v>
-      </c>
-      <c r="B228" t="s">
-        <v>27</v>
-      </c>
-      <c r="C228">
-        <v>8</v>
-      </c>
-      <c r="D228" s="4">
-        <v>3.1018518518518517E-3</v>
-      </c>
-      <c r="E228" t="s">
-        <v>35</v>
-      </c>
-      <c r="G228" s="3"/>
-      <c r="M228" s="6"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="B229" t="s">
-        <v>27</v>
-      </c>
-      <c r="C229">
-        <v>7</v>
-      </c>
-      <c r="D229" s="4">
-        <v>1.7939814814814817E-3</v>
-      </c>
-      <c r="E229" t="s">
-        <v>35</v>
-      </c>
-      <c r="G229" s="3"/>
-      <c r="M229" s="6"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230" t="s">
-        <v>25</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230" s="4">
-        <v>8.1018518518518516E-5</v>
-      </c>
-      <c r="E230" t="s">
-        <v>35</v>
-      </c>
-      <c r="G230" s="3"/>
-      <c r="M230" s="6"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>1</v>
-      </c>
-      <c r="B231" t="s">
-        <v>27</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231" s="4">
-        <v>3.5879629629629635E-4</v>
-      </c>
-      <c r="E231" t="s">
-        <v>35</v>
-      </c>
-      <c r="G231" s="3"/>
-      <c r="M231" s="6"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>4</v>
-      </c>
-      <c r="D232" s="4">
-        <v>1.0995370370370371E-3</v>
-      </c>
-      <c r="E232" t="s">
-        <v>35</v>
-      </c>
-      <c r="G232" s="3"/>
-      <c r="M232" s="6"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1</v>
-      </c>
-      <c r="B233" t="s">
-        <v>27</v>
-      </c>
-      <c r="C233">
-        <v>2</v>
-      </c>
-      <c r="D233" s="4">
-        <v>1.0416666666666667E-3</v>
-      </c>
-      <c r="E233" t="s">
-        <v>35</v>
-      </c>
-      <c r="G233" s="3"/>
-      <c r="M233" s="6"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>4</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D234" s="4">
-        <v>4.1666666666666664E-4</v>
-      </c>
-      <c r="E234" t="s">
-        <v>34</v>
-      </c>
-      <c r="G234" s="3"/>
-      <c r="M234" s="6"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>5</v>
-      </c>
-      <c r="D235" s="4">
-        <v>2.8356481481481479E-3</v>
-      </c>
-      <c r="E235" t="s">
-        <v>34</v>
-      </c>
-      <c r="G235" s="3"/>
-      <c r="M235" s="6"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>5</v>
-      </c>
-      <c r="D236" s="4">
-        <v>3.8657407407407403E-3</v>
-      </c>
-      <c r="E236" t="s">
-        <v>35</v>
-      </c>
-      <c r="G236" s="3"/>
-      <c r="M236" s="6"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1</v>
-      </c>
-      <c r="B237" t="s">
-        <v>27</v>
-      </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-      <c r="D237" s="4">
-        <v>6.8287037037037036E-4</v>
-      </c>
-      <c r="E237" t="s">
-        <v>34</v>
-      </c>
-      <c r="G237" s="3"/>
-      <c r="M237" s="6"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1</v>
-      </c>
-      <c r="B238" t="s">
-        <v>27</v>
-      </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238" s="4">
-        <v>4.0509259259259258E-4</v>
-      </c>
-      <c r="E238" t="s">
-        <v>35</v>
-      </c>
-      <c r="G238" s="3"/>
-      <c r="M238" s="6"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1</v>
-      </c>
-      <c r="B239" t="s">
-        <v>27</v>
-      </c>
-      <c r="C239">
-        <v>5</v>
-      </c>
-      <c r="D239" s="4">
-        <v>1.6203703703703703E-3</v>
-      </c>
-      <c r="E239" t="s">
-        <v>34</v>
-      </c>
-      <c r="G239" s="3"/>
-      <c r="M239" s="6"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1</v>
-      </c>
-      <c r="B240" t="s">
-        <v>27</v>
-      </c>
-      <c r="C240">
-        <v>2</v>
-      </c>
-      <c r="D240" s="4">
-        <v>1.689814814814815E-3</v>
-      </c>
-      <c r="E240" t="s">
-        <v>34</v>
-      </c>
-      <c r="G240" s="3"/>
-      <c r="M240" s="6"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1</v>
-      </c>
-      <c r="B241" t="s">
-        <v>27</v>
-      </c>
-      <c r="C241">
-        <v>2</v>
-      </c>
-      <c r="D241" s="4">
-        <v>8.9120370370370362E-4</v>
-      </c>
-      <c r="E241" t="s">
-        <v>34</v>
-      </c>
-      <c r="G241" s="3"/>
-      <c r="M241" s="6"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>1</v>
-      </c>
-      <c r="B242" t="s">
-        <v>27</v>
-      </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-      <c r="D242" s="4">
-        <v>6.4814814814814813E-4</v>
-      </c>
-      <c r="E242" t="s">
-        <v>35</v>
-      </c>
-      <c r="G242" s="3"/>
-      <c r="M242" s="6"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1</v>
-      </c>
-      <c r="B243" t="s">
-        <v>27</v>
-      </c>
-      <c r="C243">
-        <v>6</v>
-      </c>
-      <c r="D243" s="4">
-        <v>2.0138888888888888E-3</v>
-      </c>
-      <c r="E243" t="s">
-        <v>35</v>
-      </c>
-      <c r="G243" s="3"/>
-      <c r="M243" s="6"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>1</v>
-      </c>
-      <c r="B244" t="s">
-        <v>27</v>
-      </c>
-      <c r="C244">
-        <v>6</v>
-      </c>
-      <c r="D244" s="4">
-        <v>1.689814814814815E-3</v>
-      </c>
-      <c r="E244" t="s">
-        <v>35</v>
-      </c>
-      <c r="G244" s="3"/>
-      <c r="M244" s="6"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>1</v>
-      </c>
-      <c r="B245" t="s">
-        <v>27</v>
-      </c>
-      <c r="C245">
-        <v>2</v>
-      </c>
-      <c r="D245" s="4">
-        <v>1.1458333333333331E-3</v>
-      </c>
-      <c r="E245" t="s">
-        <v>34</v>
-      </c>
-      <c r="G245" s="3"/>
-      <c r="M245" s="6"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>1</v>
-      </c>
-      <c r="B246" t="s">
-        <v>25</v>
-      </c>
-      <c r="C246">
-        <v>0</v>
-      </c>
-      <c r="D246" s="4">
-        <v>8.1018518518518516E-5</v>
-      </c>
-      <c r="E246" t="s">
-        <v>34</v>
-      </c>
-      <c r="G246" s="3"/>
-      <c r="M246" s="6"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247" t="s">
-        <v>25</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247" s="4">
-        <v>6.9444444444444444E-5</v>
-      </c>
-      <c r="E247" t="s">
-        <v>34</v>
-      </c>
-      <c r="G247" s="3"/>
-      <c r="M247" s="6"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>1</v>
-      </c>
-      <c r="B248" t="s">
-        <v>27</v>
-      </c>
-      <c r="C248">
-        <v>3</v>
-      </c>
-      <c r="D248" s="4">
-        <v>1.3657407407407407E-3</v>
-      </c>
-      <c r="E248" t="s">
-        <v>34</v>
-      </c>
-      <c r="G248" s="3"/>
-      <c r="M248" s="6"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249" t="s">
-        <v>27</v>
-      </c>
-      <c r="C249">
-        <v>7</v>
-      </c>
-      <c r="D249" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E249" t="s">
-        <v>35</v>
-      </c>
-      <c r="G249" s="3"/>
-      <c r="M249" s="6"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250" s="4">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E250" t="s">
-        <v>35</v>
-      </c>
-      <c r="G250" s="3"/>
-      <c r="M250" s="6"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="B251" t="s">
-        <v>27</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251" s="4">
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="E251" t="s">
-        <v>35</v>
-      </c>
-      <c r="G251" s="3"/>
-      <c r="M251" s="6"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252" t="s">
-        <v>27</v>
-      </c>
-      <c r="C252">
-        <v>2</v>
-      </c>
-      <c r="D252" s="4">
-        <v>1.5046296296296296E-3</v>
-      </c>
-      <c r="E252" t="s">
-        <v>34</v>
-      </c>
-      <c r="G252" s="3"/>
-      <c r="M252" s="6"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>1</v>
-      </c>
-      <c r="B253" t="s">
-        <v>27</v>
-      </c>
-      <c r="C253">
-        <v>2</v>
-      </c>
-      <c r="D253" s="4">
-        <v>1.261574074074074E-3</v>
-      </c>
-      <c r="E253" t="s">
-        <v>34</v>
-      </c>
-      <c r="G253" s="3"/>
-      <c r="M253" s="6"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>1</v>
-      </c>
-      <c r="B254" t="s">
-        <v>27</v>
-      </c>
-      <c r="C254">
-        <v>2</v>
-      </c>
-      <c r="D254" s="4">
-        <v>9.4907407407407408E-4</v>
-      </c>
-      <c r="E254" t="s">
-        <v>35</v>
-      </c>
-      <c r="G254" s="3"/>
-      <c r="M254" s="6"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="B255" t="s">
-        <v>27</v>
-      </c>
-      <c r="C255">
-        <v>5</v>
-      </c>
-      <c r="D255" s="4">
-        <v>1.7708333333333332E-3</v>
-      </c>
-      <c r="E255" t="s">
-        <v>34</v>
-      </c>
-      <c r="G255" s="3"/>
-      <c r="M255" s="6"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256" t="s">
-        <v>27</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256" s="4">
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="E256" t="s">
-        <v>35</v>
-      </c>
-      <c r="G256" s="3"/>
-      <c r="M256" s="6"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>1</v>
-      </c>
-      <c r="B257" t="s">
-        <v>27</v>
-      </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-      <c r="D257" s="4">
-        <v>4.0509259259259258E-4</v>
-      </c>
-      <c r="E257" t="s">
-        <v>34</v>
-      </c>
-      <c r="G257" s="3"/>
-      <c r="M257" s="6"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>1</v>
-      </c>
-      <c r="B258" t="s">
-        <v>27</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258" s="4">
-        <v>1.3888888888888887E-3</v>
-      </c>
-      <c r="E258" t="s">
-        <v>34</v>
-      </c>
-      <c r="G258" s="3"/>
-      <c r="M258" s="6"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="B259" t="s">
-        <v>27</v>
-      </c>
-      <c r="C259">
-        <v>2</v>
-      </c>
-      <c r="D259" s="4">
-        <v>1.4467592592592594E-3</v>
-      </c>
-      <c r="E259" t="s">
-        <v>35</v>
-      </c>
-      <c r="G259" s="3"/>
-      <c r="M259" s="6"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>1</v>
-      </c>
-      <c r="B260" t="s">
-        <v>27</v>
-      </c>
-      <c r="C260">
-        <v>3</v>
-      </c>
-      <c r="D260" s="4">
-        <v>1.9791666666666668E-3</v>
-      </c>
-      <c r="E260" t="s">
-        <v>34</v>
-      </c>
-      <c r="G260" s="3"/>
-      <c r="M260" s="6"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>4</v>
-      </c>
-      <c r="D261" s="4">
-        <v>1.4814814814814816E-3</v>
-      </c>
-      <c r="E261" t="s">
-        <v>34</v>
-      </c>
-      <c r="G261" s="3"/>
-      <c r="M261" s="6"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262" t="s">
-        <v>27</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262" s="4">
-        <v>4.9768518518518521E-4</v>
-      </c>
-      <c r="E262" t="s">
-        <v>34</v>
-      </c>
-      <c r="G262" s="3"/>
-      <c r="M262" s="6"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>4</v>
-      </c>
-      <c r="D263" s="4">
-        <v>4.5138888888888892E-4</v>
-      </c>
-      <c r="E263" t="s">
-        <v>34</v>
-      </c>
-      <c r="G263" s="3"/>
-      <c r="M263" s="6"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="B264" t="s">
-        <v>27</v>
-      </c>
-      <c r="C264">
-        <v>2</v>
-      </c>
-      <c r="D264" s="4">
-        <v>9.6064814814814808E-4</v>
-      </c>
-      <c r="E264" t="s">
-        <v>35</v>
-      </c>
-      <c r="G264" s="3"/>
-      <c r="M264" s="6"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>1</v>
-      </c>
-      <c r="B265" t="s">
-        <v>27</v>
-      </c>
-      <c r="C265">
-        <v>0</v>
-      </c>
-      <c r="D265" s="4">
-        <v>3.1250000000000001E-4</v>
-      </c>
-      <c r="E265" t="s">
-        <v>34</v>
-      </c>
-      <c r="G265" s="3"/>
-      <c r="M265" s="6"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>1</v>
-      </c>
-      <c r="B266" t="s">
-        <v>27</v>
-      </c>
-      <c r="C266">
-        <v>2</v>
-      </c>
-      <c r="D266" s="4">
-        <v>1.7129629629629632E-3</v>
-      </c>
-      <c r="E266" t="s">
-        <v>34</v>
-      </c>
-      <c r="G266" s="3"/>
-      <c r="M266" s="6"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>1</v>
-      </c>
-      <c r="B267" t="s">
-        <v>27</v>
-      </c>
-      <c r="C267">
-        <v>3</v>
-      </c>
-      <c r="D267" s="4">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="E267" t="s">
-        <v>35</v>
-      </c>
-      <c r="G267" s="3"/>
-      <c r="M267" s="6"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>1</v>
-      </c>
-      <c r="B268" t="s">
-        <v>27</v>
-      </c>
-      <c r="C268">
-        <v>0</v>
-      </c>
-      <c r="D268" s="4">
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="E268" t="s">
-        <v>34</v>
-      </c>
-      <c r="G268" s="3"/>
-      <c r="M268" s="6"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="B269" t="s">
-        <v>27</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-      <c r="D269" s="4">
-        <v>1.0879629629629631E-3</v>
-      </c>
-      <c r="E269" t="s">
-        <v>35</v>
-      </c>
-      <c r="G269" s="3"/>
-      <c r="M269" s="6"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>1</v>
-      </c>
-      <c r="B270" t="s">
-        <v>27</v>
-      </c>
-      <c r="C270">
-        <v>3</v>
-      </c>
-      <c r="D270" s="4">
-        <v>1.0532407407407407E-3</v>
-      </c>
-      <c r="E270" t="s">
-        <v>35</v>
-      </c>
-      <c r="G270" s="3"/>
-      <c r="M270" s="6"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>1</v>
-      </c>
-      <c r="B271" t="s">
-        <v>27</v>
-      </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-      <c r="D271" s="4">
-        <v>1.7824074074074072E-3</v>
-      </c>
-      <c r="E271" t="s">
-        <v>35</v>
-      </c>
-      <c r="G271" s="3"/>
-      <c r="M271" s="6"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>4</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D272" s="4">
-        <v>1.2152777777777778E-3</v>
-      </c>
-      <c r="E272" t="s">
-        <v>34</v>
-      </c>
-      <c r="G272" s="3"/>
-      <c r="M272" s="6"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>1</v>
-      </c>
-      <c r="B273" t="s">
-        <v>27</v>
-      </c>
-      <c r="C273">
-        <v>0</v>
-      </c>
-      <c r="D273" s="4">
-        <v>5.9027777777777778E-4</v>
-      </c>
-      <c r="E273" t="s">
-        <v>34</v>
-      </c>
-      <c r="G273" s="3"/>
-      <c r="M273" s="6"/>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>1</v>
-      </c>
-      <c r="B274" t="s">
-        <v>27</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274" s="4">
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="E274" t="s">
-        <v>34</v>
-      </c>
-      <c r="G274" s="3"/>
-      <c r="M274" s="6"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>1</v>
-      </c>
-      <c r="B275" t="s">
-        <v>27</v>
-      </c>
-      <c r="C275">
-        <v>2</v>
-      </c>
-      <c r="D275" s="4">
-        <v>8.7962962962962962E-4</v>
-      </c>
-      <c r="E275" t="s">
-        <v>35</v>
-      </c>
-      <c r="G275" s="3"/>
-      <c r="M275" s="6"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>1</v>
-      </c>
-      <c r="B276" t="s">
-        <v>27</v>
-      </c>
-      <c r="C276">
-        <v>4</v>
-      </c>
-      <c r="D276" s="4">
-        <v>1.7476851851851852E-3</v>
-      </c>
-      <c r="E276" t="s">
-        <v>34</v>
-      </c>
-      <c r="G276" s="3"/>
-      <c r="M276" s="6"/>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>4</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D277" s="4">
-        <v>1.2152777777777778E-3</v>
-      </c>
-      <c r="E277" t="s">
-        <v>34</v>
-      </c>
-      <c r="G277" s="3"/>
-      <c r="M277" s="6"/>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>1</v>
-      </c>
-      <c r="B278" t="s">
-        <v>27</v>
-      </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-      <c r="D278" s="4">
-        <v>5.9027777777777778E-4</v>
-      </c>
-      <c r="E278" t="s">
-        <v>34</v>
-      </c>
-      <c r="G278" s="3"/>
-      <c r="M278" s="6"/>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>1</v>
-      </c>
-      <c r="B279" t="s">
-        <v>27</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
-      <c r="D279" s="4">
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="E279" t="s">
-        <v>34</v>
-      </c>
-      <c r="G279" s="3"/>
-      <c r="M279" s="6"/>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>1</v>
-      </c>
-      <c r="B280" t="s">
-        <v>27</v>
-      </c>
-      <c r="C280">
-        <v>2</v>
-      </c>
-      <c r="D280" s="4">
-        <v>8.7962962962962962E-4</v>
-      </c>
-      <c r="E280" t="s">
-        <v>35</v>
-      </c>
-      <c r="G280" s="3"/>
-      <c r="M280" s="6"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>1</v>
-      </c>
-      <c r="B281" t="s">
-        <v>27</v>
-      </c>
-      <c r="C281">
-        <v>4</v>
-      </c>
-      <c r="D281" s="4">
-        <v>1.7476851851851852E-3</v>
-      </c>
-      <c r="E281" t="s">
-        <v>34</v>
-      </c>
-      <c r="G281" s="3"/>
-      <c r="M281" s="6"/>
+      <c r="D255" t="s">
+        <v>34</v>
+      </c>
+      <c r="F255" s="3"/>
+      <c r="L255" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
